--- a/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_10店舗更新・削除画面.xlsx
+++ b/DS/001_設計書/002_詳細設計書/DS画面詳細設計書_10店舗更新・削除画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\OneDrive\ドキュメント\DeliverySystem\DS\001_設計書\002_詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7667942D-7658-4EE5-A967-F3294EAB663F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E4973A-256E-4C27-9603-6491FC79932E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -2436,23 +2436,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2472,6 +2463,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2479,10 +2479,10 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -6632,7 +6632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9379,263 +9379,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A41:AF102"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="30"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="31"/>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="30"/>
-      <c r="AE43" s="30"/>
-      <c r="AF43" s="30"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="31"/>
+      <c r="T43" s="31"/>
+      <c r="U43" s="31"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="31"/>
+      <c r="X43" s="31"/>
+      <c r="Y43" s="31"/>
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="31"/>
+      <c r="AB43" s="31"/>
+      <c r="AC43" s="31"/>
+      <c r="AD43" s="31"/>
+      <c r="AE43" s="31"/>
+      <c r="AF43" s="31"/>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="30"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="30"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="30"/>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AD44" s="30"/>
-      <c r="AE44" s="30"/>
-      <c r="AF44" s="30"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="Q44" s="31"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+      <c r="T44" s="31"/>
+      <c r="U44" s="31"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="31"/>
+      <c r="Y44" s="31"/>
+      <c r="Z44" s="31"/>
+      <c r="AA44" s="31"/>
+      <c r="AB44" s="31"/>
+      <c r="AC44" s="31"/>
+      <c r="AD44" s="31"/>
+      <c r="AE44" s="31"/>
+      <c r="AF44" s="31"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="30"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="30"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="30"/>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AD45" s="30"/>
-      <c r="AE45" s="30"/>
-      <c r="AF45" s="30"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
+      <c r="T45" s="31"/>
+      <c r="U45" s="31"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="31"/>
+      <c r="Y45" s="31"/>
+      <c r="Z45" s="31"/>
+      <c r="AA45" s="31"/>
+      <c r="AB45" s="31"/>
+      <c r="AC45" s="31"/>
+      <c r="AD45" s="31"/>
+      <c r="AE45" s="31"/>
+      <c r="AF45" s="31"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="30"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="30"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29" t="s">
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29" t="s">
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="29"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29" t="s">
+      <c r="M49" s="30"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="30"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
+      <c r="T49" s="30"/>
+      <c r="U49" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="29"/>
+      <c r="V49" s="30"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
+      <c r="Z49" s="30"/>
+      <c r="AA49" s="30"/>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AD49" s="30"/>
+      <c r="AE49" s="30"/>
+      <c r="AF49" s="30"/>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
@@ -10746,20 +10744,20 @@
       <c r="R74" s="28"/>
       <c r="S74" s="28"/>
       <c r="T74" s="28"/>
-      <c r="U74" s="31" t="s">
+      <c r="U74" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="V74" s="31"/>
-      <c r="W74" s="31"/>
-      <c r="X74" s="31"/>
-      <c r="Y74" s="31"/>
-      <c r="Z74" s="31"/>
-      <c r="AA74" s="31"/>
-      <c r="AB74" s="31"/>
-      <c r="AC74" s="31"/>
-      <c r="AD74" s="31"/>
-      <c r="AE74" s="31"/>
-      <c r="AF74" s="31"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
+      <c r="Y74" s="29"/>
+      <c r="Z74" s="29"/>
+      <c r="AA74" s="29"/>
+      <c r="AB74" s="29"/>
+      <c r="AC74" s="29"/>
+      <c r="AD74" s="29"/>
+      <c r="AE74" s="29"/>
+      <c r="AF74" s="29"/>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
@@ -11943,6 +11941,200 @@
     </row>
   </sheetData>
   <mergeCells count="218">
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:T54"/>
+    <mergeCell ref="U54:AF54"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:T57"/>
+    <mergeCell ref="U57:AF57"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:T55"/>
+    <mergeCell ref="U55:AF55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:T56"/>
+    <mergeCell ref="U56:AF56"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="U51:AF51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:T52"/>
+    <mergeCell ref="U52:AF52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:T53"/>
+    <mergeCell ref="U53:AF53"/>
+    <mergeCell ref="A41:AF41"/>
+    <mergeCell ref="A42:AF46"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:T49"/>
+    <mergeCell ref="U49:AF49"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:T50"/>
+    <mergeCell ref="U50:AF50"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AF60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:T61"/>
+    <mergeCell ref="U61:AF61"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:T58"/>
+    <mergeCell ref="U58:AF58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:T59"/>
+    <mergeCell ref="U59:AF59"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:T64"/>
+    <mergeCell ref="U64:AF64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:T65"/>
+    <mergeCell ref="U65:AF65"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:T62"/>
+    <mergeCell ref="U62:AF62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:T63"/>
+    <mergeCell ref="U63:AF63"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:T68"/>
+    <mergeCell ref="U68:AF68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:T69"/>
+    <mergeCell ref="U69:AF69"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:T66"/>
+    <mergeCell ref="U66:AF66"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:T67"/>
+    <mergeCell ref="U67:AF67"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:T72"/>
+    <mergeCell ref="U72:AF72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:T73"/>
+    <mergeCell ref="U73:AF73"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:T70"/>
+    <mergeCell ref="U70:AF70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:T71"/>
+    <mergeCell ref="U71:AF71"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:T76"/>
+    <mergeCell ref="U76:AF76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:T77"/>
+    <mergeCell ref="U77:AF77"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:T74"/>
+    <mergeCell ref="U74:AF74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:T75"/>
+    <mergeCell ref="U75:AF75"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:T80"/>
+    <mergeCell ref="U80:AF80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:T81"/>
+    <mergeCell ref="U81:AF81"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:T78"/>
+    <mergeCell ref="U78:AF78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:T79"/>
+    <mergeCell ref="U79:AF79"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:T84"/>
+    <mergeCell ref="U84:AF84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:T85"/>
+    <mergeCell ref="U85:AF85"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:T82"/>
+    <mergeCell ref="U82:AF82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:T83"/>
+    <mergeCell ref="U83:AF83"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:T88"/>
+    <mergeCell ref="U88:AF88"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:T89"/>
+    <mergeCell ref="U89:AF89"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:T86"/>
+    <mergeCell ref="U86:AF86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:T87"/>
+    <mergeCell ref="U87:AF87"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:T92"/>
+    <mergeCell ref="U92:AF92"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:T90"/>
+    <mergeCell ref="U90:AF90"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:T91"/>
+    <mergeCell ref="U91:AF91"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:T96"/>
+    <mergeCell ref="U96:AF96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:T97"/>
+    <mergeCell ref="U97:AF97"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:T94"/>
+    <mergeCell ref="U94:AF94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:T95"/>
+    <mergeCell ref="U95:AF95"/>
     <mergeCell ref="B102:G102"/>
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:T102"/>
@@ -11967,200 +12159,6 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:T99"/>
     <mergeCell ref="U99:AF99"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L96:T96"/>
-    <mergeCell ref="U96:AF96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="L97:T97"/>
-    <mergeCell ref="U97:AF97"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:T94"/>
-    <mergeCell ref="U94:AF94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:T95"/>
-    <mergeCell ref="U95:AF95"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="L92:T92"/>
-    <mergeCell ref="U92:AF92"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="L90:T90"/>
-    <mergeCell ref="U90:AF90"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="L91:T91"/>
-    <mergeCell ref="U91:AF91"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="L88:T88"/>
-    <mergeCell ref="U88:AF88"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="L89:T89"/>
-    <mergeCell ref="U89:AF89"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="H86:K86"/>
-    <mergeCell ref="L86:T86"/>
-    <mergeCell ref="U86:AF86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="H87:K87"/>
-    <mergeCell ref="L87:T87"/>
-    <mergeCell ref="U87:AF87"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="H84:K84"/>
-    <mergeCell ref="L84:T84"/>
-    <mergeCell ref="U84:AF84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="H85:K85"/>
-    <mergeCell ref="L85:T85"/>
-    <mergeCell ref="U85:AF85"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="H82:K82"/>
-    <mergeCell ref="L82:T82"/>
-    <mergeCell ref="U82:AF82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="H83:K83"/>
-    <mergeCell ref="L83:T83"/>
-    <mergeCell ref="U83:AF83"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="H80:K80"/>
-    <mergeCell ref="L80:T80"/>
-    <mergeCell ref="U80:AF80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="H81:K81"/>
-    <mergeCell ref="L81:T81"/>
-    <mergeCell ref="U81:AF81"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="H78:K78"/>
-    <mergeCell ref="L78:T78"/>
-    <mergeCell ref="U78:AF78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="H79:K79"/>
-    <mergeCell ref="L79:T79"/>
-    <mergeCell ref="U79:AF79"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:K76"/>
-    <mergeCell ref="L76:T76"/>
-    <mergeCell ref="U76:AF76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:K77"/>
-    <mergeCell ref="L77:T77"/>
-    <mergeCell ref="U77:AF77"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:T74"/>
-    <mergeCell ref="U74:AF74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:K75"/>
-    <mergeCell ref="L75:T75"/>
-    <mergeCell ref="U75:AF75"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H72:K72"/>
-    <mergeCell ref="L72:T72"/>
-    <mergeCell ref="U72:AF72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="H73:K73"/>
-    <mergeCell ref="L73:T73"/>
-    <mergeCell ref="U73:AF73"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="H70:K70"/>
-    <mergeCell ref="L70:T70"/>
-    <mergeCell ref="U70:AF70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="H71:K71"/>
-    <mergeCell ref="L71:T71"/>
-    <mergeCell ref="U71:AF71"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:T68"/>
-    <mergeCell ref="U68:AF68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:T69"/>
-    <mergeCell ref="U69:AF69"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:T66"/>
-    <mergeCell ref="U66:AF66"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:T67"/>
-    <mergeCell ref="U67:AF67"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:K64"/>
-    <mergeCell ref="L64:T64"/>
-    <mergeCell ref="U64:AF64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:K65"/>
-    <mergeCell ref="L65:T65"/>
-    <mergeCell ref="U65:AF65"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="H62:K62"/>
-    <mergeCell ref="L62:T62"/>
-    <mergeCell ref="U62:AF62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="H63:K63"/>
-    <mergeCell ref="L63:T63"/>
-    <mergeCell ref="U63:AF63"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AF60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="H61:K61"/>
-    <mergeCell ref="L61:T61"/>
-    <mergeCell ref="U61:AF61"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:K58"/>
-    <mergeCell ref="L58:T58"/>
-    <mergeCell ref="U58:AF58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:K59"/>
-    <mergeCell ref="L59:T59"/>
-    <mergeCell ref="U59:AF59"/>
-    <mergeCell ref="A41:AF41"/>
-    <mergeCell ref="A42:AF46"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="L49:T49"/>
-    <mergeCell ref="U49:AF49"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="H50:K50"/>
-    <mergeCell ref="L50:T50"/>
-    <mergeCell ref="U50:AF50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="H51:K51"/>
-    <mergeCell ref="L51:T51"/>
-    <mergeCell ref="U51:AF51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:T52"/>
-    <mergeCell ref="U52:AF52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:T53"/>
-    <mergeCell ref="U53:AF53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="H54:K54"/>
-    <mergeCell ref="L54:T54"/>
-    <mergeCell ref="U54:AF54"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:T57"/>
-    <mergeCell ref="U57:AF57"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="H55:K55"/>
-    <mergeCell ref="L55:T55"/>
-    <mergeCell ref="U55:AF55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="H56:K56"/>
-    <mergeCell ref="L56:T56"/>
-    <mergeCell ref="U56:AF56"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -12176,127 +12174,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E22C6006-1C2A-446C-896C-83BBEC0EFE83}">
   <dimension ref="A2:CE32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="29"/>
-      <c r="AK2" s="29"/>
-      <c r="AL2" s="29"/>
-      <c r="AM2" s="29"/>
-      <c r="AN2" s="29"/>
-      <c r="AO2" s="29"/>
-      <c r="AP2" s="29"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="29"/>
-      <c r="AT2" s="29"/>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="29"/>
-      <c r="AX2" s="29"/>
-      <c r="AY2" s="29"/>
-      <c r="AZ2" s="29"/>
-      <c r="BA2" s="29"/>
-      <c r="BB2" s="29"/>
-      <c r="BC2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29"/>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
@@ -12356,121 +12354,121 @@
       <c r="BC4" s="17"/>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="32" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="29" t="s">
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29" t="s">
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="29"/>
-      <c r="AG5" s="29"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29"/>
-      <c r="AK5" s="29"/>
-      <c r="AL5" s="29"/>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="29"/>
-      <c r="AO5" s="29"/>
-      <c r="AP5" s="29"/>
-      <c r="AQ5" s="29"/>
-      <c r="AR5" s="29"/>
-      <c r="AS5" s="29"/>
-      <c r="AT5" s="29"/>
-      <c r="AU5" s="29"/>
-      <c r="AV5" s="29"/>
-      <c r="AW5" s="29"/>
-      <c r="AX5" s="29"/>
-      <c r="AY5" s="29"/>
-      <c r="AZ5" s="29"/>
-      <c r="BA5" s="29"/>
-      <c r="BB5" s="29"/>
-      <c r="BC5" s="29"/>
-      <c r="BD5" s="32" t="s">
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30"/>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30"/>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30"/>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="30"/>
+      <c r="AT5" s="30"/>
+      <c r="AU5" s="30"/>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="30"/>
+      <c r="AX5" s="30"/>
+      <c r="AY5" s="30"/>
+      <c r="AZ5" s="30"/>
+      <c r="BA5" s="30"/>
+      <c r="BB5" s="30"/>
+      <c r="BC5" s="30"/>
+      <c r="BD5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="BE5" s="33"/>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33"/>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33"/>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33"/>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33"/>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33"/>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33"/>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33"/>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33"/>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33"/>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33"/>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33"/>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33"/>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="34"/>
+      <c r="BE5" s="39"/>
+      <c r="BF5" s="39"/>
+      <c r="BG5" s="39"/>
+      <c r="BH5" s="39"/>
+      <c r="BI5" s="39"/>
+      <c r="BJ5" s="39"/>
+      <c r="BK5" s="39"/>
+      <c r="BL5" s="39"/>
+      <c r="BM5" s="39"/>
+      <c r="BN5" s="39"/>
+      <c r="BO5" s="39"/>
+      <c r="BP5" s="39"/>
+      <c r="BQ5" s="39"/>
+      <c r="BR5" s="39"/>
+      <c r="BS5" s="39"/>
+      <c r="BT5" s="39"/>
+      <c r="BU5" s="39"/>
+      <c r="BV5" s="39"/>
+      <c r="BW5" s="39"/>
+      <c r="BX5" s="39"/>
+      <c r="BY5" s="39"/>
+      <c r="BZ5" s="39"/>
+      <c r="CA5" s="39"/>
+      <c r="CB5" s="39"/>
+      <c r="CC5" s="39"/>
+      <c r="CD5" s="39"/>
+      <c r="CE5" s="40"/>
     </row>
     <row r="6" spans="1:83" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>1</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="35" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="40"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="28" t="s">
         <v>123</v>
       </c>
@@ -12518,57 +12516,57 @@
       <c r="BA6" s="28"/>
       <c r="BB6" s="28"/>
       <c r="BC6" s="28"/>
-      <c r="BD6" s="35" t="s">
+      <c r="BD6" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BE6" s="36"/>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="36"/>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="36"/>
-      <c r="BQ6" s="36"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="36"/>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="36"/>
-      <c r="CA6" s="36"/>
-      <c r="CB6" s="36"/>
-      <c r="CC6" s="36"/>
-      <c r="CD6" s="36"/>
-      <c r="CE6" s="37"/>
+      <c r="BE6" s="33"/>
+      <c r="BF6" s="33"/>
+      <c r="BG6" s="33"/>
+      <c r="BH6" s="33"/>
+      <c r="BI6" s="33"/>
+      <c r="BJ6" s="33"/>
+      <c r="BK6" s="33"/>
+      <c r="BL6" s="33"/>
+      <c r="BM6" s="33"/>
+      <c r="BN6" s="33"/>
+      <c r="BO6" s="33"/>
+      <c r="BP6" s="33"/>
+      <c r="BQ6" s="33"/>
+      <c r="BR6" s="33"/>
+      <c r="BS6" s="33"/>
+      <c r="BT6" s="33"/>
+      <c r="BU6" s="33"/>
+      <c r="BV6" s="33"/>
+      <c r="BW6" s="33"/>
+      <c r="BX6" s="33"/>
+      <c r="BY6" s="33"/>
+      <c r="BZ6" s="33"/>
+      <c r="CA6" s="33"/>
+      <c r="CB6" s="33"/>
+      <c r="CC6" s="33"/>
+      <c r="CD6" s="33"/>
+      <c r="CE6" s="34"/>
     </row>
     <row r="7" spans="1:83" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="31">
         <f xml:space="preserve"> $A6+1</f>
         <v>2</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="40"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="28" t="s">
         <v>128</v>
       </c>
@@ -12616,53 +12614,53 @@
       <c r="BA7" s="28"/>
       <c r="BB7" s="28"/>
       <c r="BC7" s="28"/>
-      <c r="BD7" s="35" t="s">
+      <c r="BD7" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="36"/>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36"/>
-      <c r="BQ7" s="36"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="36"/>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="36"/>
-      <c r="BV7" s="36"/>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="36"/>
-      <c r="BY7" s="36"/>
-      <c r="BZ7" s="36"/>
-      <c r="CA7" s="36"/>
-      <c r="CB7" s="36"/>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="37"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="33"/>
+      <c r="BK7" s="33"/>
+      <c r="BL7" s="33"/>
+      <c r="BM7" s="33"/>
+      <c r="BN7" s="33"/>
+      <c r="BO7" s="33"/>
+      <c r="BP7" s="33"/>
+      <c r="BQ7" s="33"/>
+      <c r="BR7" s="33"/>
+      <c r="BS7" s="33"/>
+      <c r="BT7" s="33"/>
+      <c r="BU7" s="33"/>
+      <c r="BV7" s="33"/>
+      <c r="BW7" s="33"/>
+      <c r="BX7" s="33"/>
+      <c r="BY7" s="33"/>
+      <c r="BZ7" s="33"/>
+      <c r="CA7" s="33"/>
+      <c r="CB7" s="33"/>
+      <c r="CC7" s="33"/>
+      <c r="CD7" s="33"/>
+      <c r="CE7" s="34"/>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <f xml:space="preserve"> $A7+1</f>
         <v>3</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="40"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
@@ -12706,34 +12704,34 @@
       <c r="BA8" s="28"/>
       <c r="BB8" s="28"/>
       <c r="BC8" s="28"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="36"/>
-      <c r="BF8" s="36"/>
-      <c r="BG8" s="36"/>
-      <c r="BH8" s="36"/>
-      <c r="BI8" s="36"/>
-      <c r="BJ8" s="36"/>
-      <c r="BK8" s="36"/>
-      <c r="BL8" s="36"/>
-      <c r="BM8" s="36"/>
-      <c r="BN8" s="36"/>
-      <c r="BO8" s="36"/>
-      <c r="BP8" s="36"/>
-      <c r="BQ8" s="36"/>
-      <c r="BR8" s="36"/>
-      <c r="BS8" s="36"/>
-      <c r="BT8" s="36"/>
-      <c r="BU8" s="36"/>
-      <c r="BV8" s="36"/>
-      <c r="BW8" s="36"/>
-      <c r="BX8" s="36"/>
-      <c r="BY8" s="36"/>
-      <c r="BZ8" s="36"/>
-      <c r="CA8" s="36"/>
-      <c r="CB8" s="36"/>
-      <c r="CC8" s="36"/>
-      <c r="CD8" s="36"/>
-      <c r="CE8" s="37"/>
+      <c r="BD8" s="32"/>
+      <c r="BE8" s="33"/>
+      <c r="BF8" s="33"/>
+      <c r="BG8" s="33"/>
+      <c r="BH8" s="33"/>
+      <c r="BI8" s="33"/>
+      <c r="BJ8" s="33"/>
+      <c r="BK8" s="33"/>
+      <c r="BL8" s="33"/>
+      <c r="BM8" s="33"/>
+      <c r="BN8" s="33"/>
+      <c r="BO8" s="33"/>
+      <c r="BP8" s="33"/>
+      <c r="BQ8" s="33"/>
+      <c r="BR8" s="33"/>
+      <c r="BS8" s="33"/>
+      <c r="BT8" s="33"/>
+      <c r="BU8" s="33"/>
+      <c r="BV8" s="33"/>
+      <c r="BW8" s="33"/>
+      <c r="BX8" s="33"/>
+      <c r="BY8" s="33"/>
+      <c r="BZ8" s="33"/>
+      <c r="CA8" s="33"/>
+      <c r="CB8" s="33"/>
+      <c r="CC8" s="33"/>
+      <c r="CD8" s="33"/>
+      <c r="CE8" s="34"/>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
@@ -12850,125 +12848,125 @@
       <c r="BC10" s="16"/>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="29" t="s">
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29" t="s">
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-      <c r="AC11" s="29"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="29" t="s">
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="30"/>
+      <c r="AC11" s="30"/>
+      <c r="AD11" s="30"/>
+      <c r="AE11" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="29"/>
-      <c r="AH11" s="29"/>
-      <c r="AI11" s="29"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="29"/>
-      <c r="AL11" s="29"/>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29" t="s">
+      <c r="AF11" s="30"/>
+      <c r="AG11" s="30"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="30"/>
+      <c r="AK11" s="30"/>
+      <c r="AL11" s="30"/>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="29"/>
-      <c r="AS11" s="29"/>
-      <c r="AT11" s="29"/>
-      <c r="AU11" s="29"/>
-      <c r="AV11" s="29"/>
-      <c r="AW11" s="29"/>
-      <c r="AX11" s="29"/>
-      <c r="AY11" s="29"/>
-      <c r="AZ11" s="29"/>
-      <c r="BA11" s="29"/>
-      <c r="BB11" s="29"/>
-      <c r="BC11" s="29"/>
-      <c r="BD11" s="32" t="s">
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="30"/>
+      <c r="AS11" s="30"/>
+      <c r="AT11" s="30"/>
+      <c r="AU11" s="30"/>
+      <c r="AV11" s="30"/>
+      <c r="AW11" s="30"/>
+      <c r="AX11" s="30"/>
+      <c r="AY11" s="30"/>
+      <c r="AZ11" s="30"/>
+      <c r="BA11" s="30"/>
+      <c r="BB11" s="30"/>
+      <c r="BC11" s="30"/>
+      <c r="BD11" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="BE11" s="33"/>
-      <c r="BF11" s="33"/>
-      <c r="BG11" s="33"/>
-      <c r="BH11" s="33"/>
-      <c r="BI11" s="33"/>
-      <c r="BJ11" s="33"/>
-      <c r="BK11" s="33"/>
-      <c r="BL11" s="33"/>
-      <c r="BM11" s="33"/>
-      <c r="BN11" s="33"/>
-      <c r="BO11" s="33"/>
-      <c r="BP11" s="33"/>
-      <c r="BQ11" s="33"/>
-      <c r="BR11" s="33"/>
-      <c r="BS11" s="33"/>
-      <c r="BT11" s="33"/>
-      <c r="BU11" s="33"/>
-      <c r="BV11" s="33"/>
-      <c r="BW11" s="33"/>
-      <c r="BX11" s="33"/>
-      <c r="BY11" s="33"/>
-      <c r="BZ11" s="33"/>
-      <c r="CA11" s="33"/>
-      <c r="CB11" s="33"/>
-      <c r="CC11" s="33"/>
-      <c r="CD11" s="33"/>
-      <c r="CE11" s="34"/>
+      <c r="BE11" s="39"/>
+      <c r="BF11" s="39"/>
+      <c r="BG11" s="39"/>
+      <c r="BH11" s="39"/>
+      <c r="BI11" s="39"/>
+      <c r="BJ11" s="39"/>
+      <c r="BK11" s="39"/>
+      <c r="BL11" s="39"/>
+      <c r="BM11" s="39"/>
+      <c r="BN11" s="39"/>
+      <c r="BO11" s="39"/>
+      <c r="BP11" s="39"/>
+      <c r="BQ11" s="39"/>
+      <c r="BR11" s="39"/>
+      <c r="BS11" s="39"/>
+      <c r="BT11" s="39"/>
+      <c r="BU11" s="39"/>
+      <c r="BV11" s="39"/>
+      <c r="BW11" s="39"/>
+      <c r="BX11" s="39"/>
+      <c r="BY11" s="39"/>
+      <c r="BZ11" s="39"/>
+      <c r="CA11" s="39"/>
+      <c r="CB11" s="39"/>
+      <c r="CC11" s="39"/>
+      <c r="CD11" s="39"/>
+      <c r="CE11" s="40"/>
     </row>
     <row r="12" spans="1:83" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>1</v>
       </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
       <c r="M12" s="28" t="s">
         <v>130</v>
       </c>
@@ -13002,75 +13000,75 @@
       <c r="AK12" s="28"/>
       <c r="AL12" s="28"/>
       <c r="AM12" s="28"/>
-      <c r="AN12" s="31" t="s">
+      <c r="AN12" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="31"/>
-      <c r="AT12" s="31"/>
-      <c r="AU12" s="31"/>
-      <c r="AV12" s="31"/>
-      <c r="AW12" s="31"/>
-      <c r="AX12" s="31"/>
-      <c r="AY12" s="31"/>
-      <c r="AZ12" s="31"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="31"/>
-      <c r="BC12" s="31"/>
-      <c r="BD12" s="35" t="s">
+      <c r="AO12" s="29"/>
+      <c r="AP12" s="29"/>
+      <c r="AQ12" s="29"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="29"/>
+      <c r="AT12" s="29"/>
+      <c r="AU12" s="29"/>
+      <c r="AV12" s="29"/>
+      <c r="AW12" s="29"/>
+      <c r="AX12" s="29"/>
+      <c r="AY12" s="29"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="29"/>
+      <c r="BC12" s="29"/>
+      <c r="BD12" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BE12" s="36"/>
-      <c r="BF12" s="36"/>
-      <c r="BG12" s="36"/>
-      <c r="BH12" s="36"/>
-      <c r="BI12" s="36"/>
-      <c r="BJ12" s="36"/>
-      <c r="BK12" s="36"/>
-      <c r="BL12" s="36"/>
-      <c r="BM12" s="36"/>
-      <c r="BN12" s="36"/>
-      <c r="BO12" s="36"/>
-      <c r="BP12" s="36"/>
-      <c r="BQ12" s="36"/>
-      <c r="BR12" s="36"/>
-      <c r="BS12" s="36"/>
-      <c r="BT12" s="36"/>
-      <c r="BU12" s="36"/>
-      <c r="BV12" s="36"/>
-      <c r="BW12" s="36"/>
-      <c r="BX12" s="36"/>
-      <c r="BY12" s="36"/>
-      <c r="BZ12" s="36"/>
-      <c r="CA12" s="36"/>
-      <c r="CB12" s="36"/>
-      <c r="CC12" s="36"/>
-      <c r="CD12" s="36"/>
-      <c r="CE12" s="37"/>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="33"/>
+      <c r="BM12" s="33"/>
+      <c r="BN12" s="33"/>
+      <c r="BO12" s="33"/>
+      <c r="BP12" s="33"/>
+      <c r="BQ12" s="33"/>
+      <c r="BR12" s="33"/>
+      <c r="BS12" s="33"/>
+      <c r="BT12" s="33"/>
+      <c r="BU12" s="33"/>
+      <c r="BV12" s="33"/>
+      <c r="BW12" s="33"/>
+      <c r="BX12" s="33"/>
+      <c r="BY12" s="33"/>
+      <c r="BZ12" s="33"/>
+      <c r="CA12" s="33"/>
+      <c r="CB12" s="33"/>
+      <c r="CC12" s="33"/>
+      <c r="CD12" s="33"/>
+      <c r="CE12" s="34"/>
     </row>
     <row r="13" spans="1:83" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30">
+      <c r="A13" s="31">
         <f xml:space="preserve"> $A12+1</f>
         <v>2</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="28" t="s">
         <v>133</v>
       </c>
@@ -13122,57 +13120,57 @@
       <c r="BA13" s="28"/>
       <c r="BB13" s="28"/>
       <c r="BC13" s="28"/>
-      <c r="BD13" s="35" t="s">
+      <c r="BD13" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="BE13" s="36"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="36"/>
-      <c r="BH13" s="36"/>
-      <c r="BI13" s="36"/>
-      <c r="BJ13" s="36"/>
-      <c r="BK13" s="36"/>
-      <c r="BL13" s="36"/>
-      <c r="BM13" s="36"/>
-      <c r="BN13" s="36"/>
-      <c r="BO13" s="36"/>
-      <c r="BP13" s="36"/>
-      <c r="BQ13" s="36"/>
-      <c r="BR13" s="36"/>
-      <c r="BS13" s="36"/>
-      <c r="BT13" s="36"/>
-      <c r="BU13" s="36"/>
-      <c r="BV13" s="36"/>
-      <c r="BW13" s="36"/>
-      <c r="BX13" s="36"/>
-      <c r="BY13" s="36"/>
-      <c r="BZ13" s="36"/>
-      <c r="CA13" s="36"/>
-      <c r="CB13" s="36"/>
-      <c r="CC13" s="36"/>
-      <c r="CD13" s="36"/>
-      <c r="CE13" s="37"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="33"/>
+      <c r="BH13" s="33"/>
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="33"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="33"/>
+      <c r="BR13" s="33"/>
+      <c r="BS13" s="33"/>
+      <c r="BT13" s="33"/>
+      <c r="BU13" s="33"/>
+      <c r="BV13" s="33"/>
+      <c r="BW13" s="33"/>
+      <c r="BX13" s="33"/>
+      <c r="BY13" s="33"/>
+      <c r="BZ13" s="33"/>
+      <c r="CA13" s="33"/>
+      <c r="CB13" s="33"/>
+      <c r="CC13" s="33"/>
+      <c r="CD13" s="33"/>
+      <c r="CE13" s="34"/>
     </row>
     <row r="14" spans="1:83" ht="46.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <f t="shared" ref="A14" si="0" xml:space="preserve"> $A13+1</f>
         <v>3</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="40"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="28" t="s">
         <v>133</v>
       </c>
@@ -13224,57 +13222,57 @@
       <c r="BA14" s="28"/>
       <c r="BB14" s="28"/>
       <c r="BC14" s="28"/>
-      <c r="BD14" s="35" t="s">
+      <c r="BD14" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-      <c r="BH14" s="36"/>
-      <c r="BI14" s="36"/>
-      <c r="BJ14" s="36"/>
-      <c r="BK14" s="36"/>
-      <c r="BL14" s="36"/>
-      <c r="BM14" s="36"/>
-      <c r="BN14" s="36"/>
-      <c r="BO14" s="36"/>
-      <c r="BP14" s="36"/>
-      <c r="BQ14" s="36"/>
-      <c r="BR14" s="36"/>
-      <c r="BS14" s="36"/>
-      <c r="BT14" s="36"/>
-      <c r="BU14" s="36"/>
-      <c r="BV14" s="36"/>
-      <c r="BW14" s="36"/>
-      <c r="BX14" s="36"/>
-      <c r="BY14" s="36"/>
-      <c r="BZ14" s="36"/>
-      <c r="CA14" s="36"/>
-      <c r="CB14" s="36"/>
-      <c r="CC14" s="36"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="37"/>
+      <c r="BE14" s="33"/>
+      <c r="BF14" s="33"/>
+      <c r="BG14" s="33"/>
+      <c r="BH14" s="33"/>
+      <c r="BI14" s="33"/>
+      <c r="BJ14" s="33"/>
+      <c r="BK14" s="33"/>
+      <c r="BL14" s="33"/>
+      <c r="BM14" s="33"/>
+      <c r="BN14" s="33"/>
+      <c r="BO14" s="33"/>
+      <c r="BP14" s="33"/>
+      <c r="BQ14" s="33"/>
+      <c r="BR14" s="33"/>
+      <c r="BS14" s="33"/>
+      <c r="BT14" s="33"/>
+      <c r="BU14" s="33"/>
+      <c r="BV14" s="33"/>
+      <c r="BW14" s="33"/>
+      <c r="BX14" s="33"/>
+      <c r="BY14" s="33"/>
+      <c r="BZ14" s="33"/>
+      <c r="CA14" s="33"/>
+      <c r="CB14" s="33"/>
+      <c r="CC14" s="33"/>
+      <c r="CD14" s="33"/>
+      <c r="CE14" s="34"/>
     </row>
     <row r="15" spans="1:83" ht="29.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <f xml:space="preserve"> $A14+1</f>
         <v>4</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="31"/>
+      <c r="C15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="40"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="28" t="s">
         <v>133</v>
       </c>
@@ -13326,57 +13324,57 @@
       <c r="BA15" s="28"/>
       <c r="BB15" s="28"/>
       <c r="BC15" s="28"/>
-      <c r="BD15" s="35" t="s">
+      <c r="BD15" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BE15" s="36"/>
-      <c r="BF15" s="36"/>
-      <c r="BG15" s="36"/>
-      <c r="BH15" s="36"/>
-      <c r="BI15" s="36"/>
-      <c r="BJ15" s="36"/>
-      <c r="BK15" s="36"/>
-      <c r="BL15" s="36"/>
-      <c r="BM15" s="36"/>
-      <c r="BN15" s="36"/>
-      <c r="BO15" s="36"/>
-      <c r="BP15" s="36"/>
-      <c r="BQ15" s="36"/>
-      <c r="BR15" s="36"/>
-      <c r="BS15" s="36"/>
-      <c r="BT15" s="36"/>
-      <c r="BU15" s="36"/>
-      <c r="BV15" s="36"/>
-      <c r="BW15" s="36"/>
-      <c r="BX15" s="36"/>
-      <c r="BY15" s="36"/>
-      <c r="BZ15" s="36"/>
-      <c r="CA15" s="36"/>
-      <c r="CB15" s="36"/>
-      <c r="CC15" s="36"/>
-      <c r="CD15" s="36"/>
-      <c r="CE15" s="37"/>
+      <c r="BE15" s="33"/>
+      <c r="BF15" s="33"/>
+      <c r="BG15" s="33"/>
+      <c r="BH15" s="33"/>
+      <c r="BI15" s="33"/>
+      <c r="BJ15" s="33"/>
+      <c r="BK15" s="33"/>
+      <c r="BL15" s="33"/>
+      <c r="BM15" s="33"/>
+      <c r="BN15" s="33"/>
+      <c r="BO15" s="33"/>
+      <c r="BP15" s="33"/>
+      <c r="BQ15" s="33"/>
+      <c r="BR15" s="33"/>
+      <c r="BS15" s="33"/>
+      <c r="BT15" s="33"/>
+      <c r="BU15" s="33"/>
+      <c r="BV15" s="33"/>
+      <c r="BW15" s="33"/>
+      <c r="BX15" s="33"/>
+      <c r="BY15" s="33"/>
+      <c r="BZ15" s="33"/>
+      <c r="CA15" s="33"/>
+      <c r="CB15" s="33"/>
+      <c r="CC15" s="33"/>
+      <c r="CD15" s="33"/>
+      <c r="CE15" s="34"/>
     </row>
     <row r="16" spans="1:83" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <f t="shared" ref="A16:A17" si="1" xml:space="preserve"> $A15+1</f>
         <v>5</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="40"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="28" t="s">
         <v>133</v>
       </c>
@@ -13428,57 +13426,57 @@
       <c r="BA16" s="28"/>
       <c r="BB16" s="28"/>
       <c r="BC16" s="28"/>
-      <c r="BD16" s="35" t="s">
+      <c r="BD16" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BE16" s="36"/>
-      <c r="BF16" s="36"/>
-      <c r="BG16" s="36"/>
-      <c r="BH16" s="36"/>
-      <c r="BI16" s="36"/>
-      <c r="BJ16" s="36"/>
-      <c r="BK16" s="36"/>
-      <c r="BL16" s="36"/>
-      <c r="BM16" s="36"/>
-      <c r="BN16" s="36"/>
-      <c r="BO16" s="36"/>
-      <c r="BP16" s="36"/>
-      <c r="BQ16" s="36"/>
-      <c r="BR16" s="36"/>
-      <c r="BS16" s="36"/>
-      <c r="BT16" s="36"/>
-      <c r="BU16" s="36"/>
-      <c r="BV16" s="36"/>
-      <c r="BW16" s="36"/>
-      <c r="BX16" s="36"/>
-      <c r="BY16" s="36"/>
-      <c r="BZ16" s="36"/>
-      <c r="CA16" s="36"/>
-      <c r="CB16" s="36"/>
-      <c r="CC16" s="36"/>
-      <c r="CD16" s="36"/>
-      <c r="CE16" s="37"/>
+      <c r="BE16" s="33"/>
+      <c r="BF16" s="33"/>
+      <c r="BG16" s="33"/>
+      <c r="BH16" s="33"/>
+      <c r="BI16" s="33"/>
+      <c r="BJ16" s="33"/>
+      <c r="BK16" s="33"/>
+      <c r="BL16" s="33"/>
+      <c r="BM16" s="33"/>
+      <c r="BN16" s="33"/>
+      <c r="BO16" s="33"/>
+      <c r="BP16" s="33"/>
+      <c r="BQ16" s="33"/>
+      <c r="BR16" s="33"/>
+      <c r="BS16" s="33"/>
+      <c r="BT16" s="33"/>
+      <c r="BU16" s="33"/>
+      <c r="BV16" s="33"/>
+      <c r="BW16" s="33"/>
+      <c r="BX16" s="33"/>
+      <c r="BY16" s="33"/>
+      <c r="BZ16" s="33"/>
+      <c r="CA16" s="33"/>
+      <c r="CB16" s="33"/>
+      <c r="CC16" s="33"/>
+      <c r="CD16" s="33"/>
+      <c r="CE16" s="34"/>
     </row>
     <row r="17" spans="1:83" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="35" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="28" t="s">
         <v>133</v>
       </c>
@@ -13530,57 +13528,57 @@
       <c r="BA17" s="28"/>
       <c r="BB17" s="28"/>
       <c r="BC17" s="28"/>
-      <c r="BD17" s="35" t="s">
+      <c r="BD17" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BE17" s="36"/>
-      <c r="BF17" s="36"/>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="36"/>
-      <c r="BJ17" s="36"/>
-      <c r="BK17" s="36"/>
-      <c r="BL17" s="36"/>
-      <c r="BM17" s="36"/>
-      <c r="BN17" s="36"/>
-      <c r="BO17" s="36"/>
-      <c r="BP17" s="36"/>
-      <c r="BQ17" s="36"/>
-      <c r="BR17" s="36"/>
-      <c r="BS17" s="36"/>
-      <c r="BT17" s="36"/>
-      <c r="BU17" s="36"/>
-      <c r="BV17" s="36"/>
-      <c r="BW17" s="36"/>
-      <c r="BX17" s="36"/>
-      <c r="BY17" s="36"/>
-      <c r="BZ17" s="36"/>
-      <c r="CA17" s="36"/>
-      <c r="CB17" s="36"/>
-      <c r="CC17" s="36"/>
-      <c r="CD17" s="36"/>
-      <c r="CE17" s="37"/>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="33"/>
+      <c r="BG17" s="33"/>
+      <c r="BH17" s="33"/>
+      <c r="BI17" s="33"/>
+      <c r="BJ17" s="33"/>
+      <c r="BK17" s="33"/>
+      <c r="BL17" s="33"/>
+      <c r="BM17" s="33"/>
+      <c r="BN17" s="33"/>
+      <c r="BO17" s="33"/>
+      <c r="BP17" s="33"/>
+      <c r="BQ17" s="33"/>
+      <c r="BR17" s="33"/>
+      <c r="BS17" s="33"/>
+      <c r="BT17" s="33"/>
+      <c r="BU17" s="33"/>
+      <c r="BV17" s="33"/>
+      <c r="BW17" s="33"/>
+      <c r="BX17" s="33"/>
+      <c r="BY17" s="33"/>
+      <c r="BZ17" s="33"/>
+      <c r="CA17" s="33"/>
+      <c r="CB17" s="33"/>
+      <c r="CC17" s="33"/>
+      <c r="CD17" s="33"/>
+      <c r="CE17" s="34"/>
     </row>
     <row r="18" spans="1:83" ht="44.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <f t="shared" ref="A18:A24" si="2" xml:space="preserve"> $A17+1</f>
         <v>7</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="40"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="28" t="s">
         <v>123</v>
       </c>
@@ -13632,57 +13630,57 @@
       <c r="BA18" s="28"/>
       <c r="BB18" s="28"/>
       <c r="BC18" s="28"/>
-      <c r="BD18" s="35" t="s">
+      <c r="BD18" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
-      <c r="BJ18" s="36"/>
-      <c r="BK18" s="36"/>
-      <c r="BL18" s="36"/>
-      <c r="BM18" s="36"/>
-      <c r="BN18" s="36"/>
-      <c r="BO18" s="36"/>
-      <c r="BP18" s="36"/>
-      <c r="BQ18" s="36"/>
-      <c r="BR18" s="36"/>
-      <c r="BS18" s="36"/>
-      <c r="BT18" s="36"/>
-      <c r="BU18" s="36"/>
-      <c r="BV18" s="36"/>
-      <c r="BW18" s="36"/>
-      <c r="BX18" s="36"/>
-      <c r="BY18" s="36"/>
-      <c r="BZ18" s="36"/>
-      <c r="CA18" s="36"/>
-      <c r="CB18" s="36"/>
-      <c r="CC18" s="36"/>
-      <c r="CD18" s="36"/>
-      <c r="CE18" s="37"/>
+      <c r="BE18" s="33"/>
+      <c r="BF18" s="33"/>
+      <c r="BG18" s="33"/>
+      <c r="BH18" s="33"/>
+      <c r="BI18" s="33"/>
+      <c r="BJ18" s="33"/>
+      <c r="BK18" s="33"/>
+      <c r="BL18" s="33"/>
+      <c r="BM18" s="33"/>
+      <c r="BN18" s="33"/>
+      <c r="BO18" s="33"/>
+      <c r="BP18" s="33"/>
+      <c r="BQ18" s="33"/>
+      <c r="BR18" s="33"/>
+      <c r="BS18" s="33"/>
+      <c r="BT18" s="33"/>
+      <c r="BU18" s="33"/>
+      <c r="BV18" s="33"/>
+      <c r="BW18" s="33"/>
+      <c r="BX18" s="33"/>
+      <c r="BY18" s="33"/>
+      <c r="BZ18" s="33"/>
+      <c r="CA18" s="33"/>
+      <c r="CB18" s="33"/>
+      <c r="CC18" s="33"/>
+      <c r="CD18" s="33"/>
+      <c r="CE18" s="34"/>
     </row>
     <row r="19" spans="1:83" ht="208.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="35" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38" t="s">
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="28" t="s">
         <v>123</v>
       </c>
@@ -13734,57 +13732,57 @@
       <c r="BA19" s="28"/>
       <c r="BB19" s="28"/>
       <c r="BC19" s="28"/>
-      <c r="BD19" s="35" t="s">
+      <c r="BD19" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="36"/>
-      <c r="BH19" s="36"/>
-      <c r="BI19" s="36"/>
-      <c r="BJ19" s="36"/>
-      <c r="BK19" s="36"/>
-      <c r="BL19" s="36"/>
-      <c r="BM19" s="36"/>
-      <c r="BN19" s="36"/>
-      <c r="BO19" s="36"/>
-      <c r="BP19" s="36"/>
-      <c r="BQ19" s="36"/>
-      <c r="BR19" s="36"/>
-      <c r="BS19" s="36"/>
-      <c r="BT19" s="36"/>
-      <c r="BU19" s="36"/>
-      <c r="BV19" s="36"/>
-      <c r="BW19" s="36"/>
-      <c r="BX19" s="36"/>
-      <c r="BY19" s="36"/>
-      <c r="BZ19" s="36"/>
-      <c r="CA19" s="36"/>
-      <c r="CB19" s="36"/>
-      <c r="CC19" s="36"/>
-      <c r="CD19" s="36"/>
-      <c r="CE19" s="37"/>
+      <c r="BE19" s="33"/>
+      <c r="BF19" s="33"/>
+      <c r="BG19" s="33"/>
+      <c r="BH19" s="33"/>
+      <c r="BI19" s="33"/>
+      <c r="BJ19" s="33"/>
+      <c r="BK19" s="33"/>
+      <c r="BL19" s="33"/>
+      <c r="BM19" s="33"/>
+      <c r="BN19" s="33"/>
+      <c r="BO19" s="33"/>
+      <c r="BP19" s="33"/>
+      <c r="BQ19" s="33"/>
+      <c r="BR19" s="33"/>
+      <c r="BS19" s="33"/>
+      <c r="BT19" s="33"/>
+      <c r="BU19" s="33"/>
+      <c r="BV19" s="33"/>
+      <c r="BW19" s="33"/>
+      <c r="BX19" s="33"/>
+      <c r="BY19" s="33"/>
+      <c r="BZ19" s="33"/>
+      <c r="CA19" s="33"/>
+      <c r="CB19" s="33"/>
+      <c r="CC19" s="33"/>
+      <c r="CD19" s="33"/>
+      <c r="CE19" s="34"/>
     </row>
     <row r="20" spans="1:83" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30">
+      <c r="A20" s="31">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="35" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="40"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="28" t="s">
         <v>231</v>
       </c>
@@ -13836,53 +13834,53 @@
       <c r="BA20" s="28"/>
       <c r="BB20" s="28"/>
       <c r="BC20" s="28"/>
-      <c r="BD20" s="35" t="s">
+      <c r="BD20" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="36"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
-      <c r="BJ20" s="36"/>
-      <c r="BK20" s="36"/>
-      <c r="BL20" s="36"/>
-      <c r="BM20" s="36"/>
-      <c r="BN20" s="36"/>
-      <c r="BO20" s="36"/>
-      <c r="BP20" s="36"/>
-      <c r="BQ20" s="36"/>
-      <c r="BR20" s="36"/>
-      <c r="BS20" s="36"/>
-      <c r="BT20" s="36"/>
-      <c r="BU20" s="36"/>
-      <c r="BV20" s="36"/>
-      <c r="BW20" s="36"/>
-      <c r="BX20" s="36"/>
-      <c r="BY20" s="36"/>
-      <c r="BZ20" s="36"/>
-      <c r="CA20" s="36"/>
-      <c r="CB20" s="36"/>
-      <c r="CC20" s="36"/>
-      <c r="CD20" s="36"/>
-      <c r="CE20" s="37"/>
+      <c r="BE20" s="33"/>
+      <c r="BF20" s="33"/>
+      <c r="BG20" s="33"/>
+      <c r="BH20" s="33"/>
+      <c r="BI20" s="33"/>
+      <c r="BJ20" s="33"/>
+      <c r="BK20" s="33"/>
+      <c r="BL20" s="33"/>
+      <c r="BM20" s="33"/>
+      <c r="BN20" s="33"/>
+      <c r="BO20" s="33"/>
+      <c r="BP20" s="33"/>
+      <c r="BQ20" s="33"/>
+      <c r="BR20" s="33"/>
+      <c r="BS20" s="33"/>
+      <c r="BT20" s="33"/>
+      <c r="BU20" s="33"/>
+      <c r="BV20" s="33"/>
+      <c r="BW20" s="33"/>
+      <c r="BX20" s="33"/>
+      <c r="BY20" s="33"/>
+      <c r="BZ20" s="33"/>
+      <c r="CA20" s="33"/>
+      <c r="CB20" s="33"/>
+      <c r="CC20" s="33"/>
+      <c r="CD20" s="33"/>
+      <c r="CE20" s="34"/>
     </row>
     <row r="21" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="40"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
@@ -13926,51 +13924,51 @@
       <c r="BA21" s="28"/>
       <c r="BB21" s="28"/>
       <c r="BC21" s="28"/>
-      <c r="BD21" s="35"/>
-      <c r="BE21" s="36"/>
-      <c r="BF21" s="36"/>
-      <c r="BG21" s="36"/>
-      <c r="BH21" s="36"/>
-      <c r="BI21" s="36"/>
-      <c r="BJ21" s="36"/>
-      <c r="BK21" s="36"/>
-      <c r="BL21" s="36"/>
-      <c r="BM21" s="36"/>
-      <c r="BN21" s="36"/>
-      <c r="BO21" s="36"/>
-      <c r="BP21" s="36"/>
-      <c r="BQ21" s="36"/>
-      <c r="BR21" s="36"/>
-      <c r="BS21" s="36"/>
-      <c r="BT21" s="36"/>
-      <c r="BU21" s="36"/>
-      <c r="BV21" s="36"/>
-      <c r="BW21" s="36"/>
-      <c r="BX21" s="36"/>
-      <c r="BY21" s="36"/>
-      <c r="BZ21" s="36"/>
-      <c r="CA21" s="36"/>
-      <c r="CB21" s="36"/>
-      <c r="CC21" s="36"/>
-      <c r="CD21" s="36"/>
-      <c r="CE21" s="37"/>
+      <c r="BD21" s="32"/>
+      <c r="BE21" s="33"/>
+      <c r="BF21" s="33"/>
+      <c r="BG21" s="33"/>
+      <c r="BH21" s="33"/>
+      <c r="BI21" s="33"/>
+      <c r="BJ21" s="33"/>
+      <c r="BK21" s="33"/>
+      <c r="BL21" s="33"/>
+      <c r="BM21" s="33"/>
+      <c r="BN21" s="33"/>
+      <c r="BO21" s="33"/>
+      <c r="BP21" s="33"/>
+      <c r="BQ21" s="33"/>
+      <c r="BR21" s="33"/>
+      <c r="BS21" s="33"/>
+      <c r="BT21" s="33"/>
+      <c r="BU21" s="33"/>
+      <c r="BV21" s="33"/>
+      <c r="BW21" s="33"/>
+      <c r="BX21" s="33"/>
+      <c r="BY21" s="33"/>
+      <c r="BZ21" s="33"/>
+      <c r="CA21" s="33"/>
+      <c r="CB21" s="33"/>
+      <c r="CC21" s="33"/>
+      <c r="CD21" s="33"/>
+      <c r="CE21" s="34"/>
     </row>
     <row r="22" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A22" s="30">
+      <c r="A22" s="31">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="40"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
@@ -14014,51 +14012,51 @@
       <c r="BA22" s="28"/>
       <c r="BB22" s="28"/>
       <c r="BC22" s="28"/>
-      <c r="BD22" s="35"/>
-      <c r="BE22" s="36"/>
-      <c r="BF22" s="36"/>
-      <c r="BG22" s="36"/>
-      <c r="BH22" s="36"/>
-      <c r="BI22" s="36"/>
-      <c r="BJ22" s="36"/>
-      <c r="BK22" s="36"/>
-      <c r="BL22" s="36"/>
-      <c r="BM22" s="36"/>
-      <c r="BN22" s="36"/>
-      <c r="BO22" s="36"/>
-      <c r="BP22" s="36"/>
-      <c r="BQ22" s="36"/>
-      <c r="BR22" s="36"/>
-      <c r="BS22" s="36"/>
-      <c r="BT22" s="36"/>
-      <c r="BU22" s="36"/>
-      <c r="BV22" s="36"/>
-      <c r="BW22" s="36"/>
-      <c r="BX22" s="36"/>
-      <c r="BY22" s="36"/>
-      <c r="BZ22" s="36"/>
-      <c r="CA22" s="36"/>
-      <c r="CB22" s="36"/>
-      <c r="CC22" s="36"/>
-      <c r="CD22" s="36"/>
-      <c r="CE22" s="37"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="33"/>
+      <c r="BF22" s="33"/>
+      <c r="BG22" s="33"/>
+      <c r="BH22" s="33"/>
+      <c r="BI22" s="33"/>
+      <c r="BJ22" s="33"/>
+      <c r="BK22" s="33"/>
+      <c r="BL22" s="33"/>
+      <c r="BM22" s="33"/>
+      <c r="BN22" s="33"/>
+      <c r="BO22" s="33"/>
+      <c r="BP22" s="33"/>
+      <c r="BQ22" s="33"/>
+      <c r="BR22" s="33"/>
+      <c r="BS22" s="33"/>
+      <c r="BT22" s="33"/>
+      <c r="BU22" s="33"/>
+      <c r="BV22" s="33"/>
+      <c r="BW22" s="33"/>
+      <c r="BX22" s="33"/>
+      <c r="BY22" s="33"/>
+      <c r="BZ22" s="33"/>
+      <c r="CA22" s="33"/>
+      <c r="CB22" s="33"/>
+      <c r="CC22" s="33"/>
+      <c r="CD22" s="33"/>
+      <c r="CE22" s="34"/>
     </row>
     <row r="23" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A23" s="30">
+      <c r="A23" s="31">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="40"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
@@ -14102,51 +14100,51 @@
       <c r="BA23" s="28"/>
       <c r="BB23" s="28"/>
       <c r="BC23" s="28"/>
-      <c r="BD23" s="35"/>
-      <c r="BE23" s="36"/>
-      <c r="BF23" s="36"/>
-      <c r="BG23" s="36"/>
-      <c r="BH23" s="36"/>
-      <c r="BI23" s="36"/>
-      <c r="BJ23" s="36"/>
-      <c r="BK23" s="36"/>
-      <c r="BL23" s="36"/>
-      <c r="BM23" s="36"/>
-      <c r="BN23" s="36"/>
-      <c r="BO23" s="36"/>
-      <c r="BP23" s="36"/>
-      <c r="BQ23" s="36"/>
-      <c r="BR23" s="36"/>
-      <c r="BS23" s="36"/>
-      <c r="BT23" s="36"/>
-      <c r="BU23" s="36"/>
-      <c r="BV23" s="36"/>
-      <c r="BW23" s="36"/>
-      <c r="BX23" s="36"/>
-      <c r="BY23" s="36"/>
-      <c r="BZ23" s="36"/>
-      <c r="CA23" s="36"/>
-      <c r="CB23" s="36"/>
-      <c r="CC23" s="36"/>
-      <c r="CD23" s="36"/>
-      <c r="CE23" s="37"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="33"/>
+      <c r="BF23" s="33"/>
+      <c r="BG23" s="33"/>
+      <c r="BH23" s="33"/>
+      <c r="BI23" s="33"/>
+      <c r="BJ23" s="33"/>
+      <c r="BK23" s="33"/>
+      <c r="BL23" s="33"/>
+      <c r="BM23" s="33"/>
+      <c r="BN23" s="33"/>
+      <c r="BO23" s="33"/>
+      <c r="BP23" s="33"/>
+      <c r="BQ23" s="33"/>
+      <c r="BR23" s="33"/>
+      <c r="BS23" s="33"/>
+      <c r="BT23" s="33"/>
+      <c r="BU23" s="33"/>
+      <c r="BV23" s="33"/>
+      <c r="BW23" s="33"/>
+      <c r="BX23" s="33"/>
+      <c r="BY23" s="33"/>
+      <c r="BZ23" s="33"/>
+      <c r="CA23" s="33"/>
+      <c r="CB23" s="33"/>
+      <c r="CC23" s="33"/>
+      <c r="CD23" s="33"/>
+      <c r="CE23" s="34"/>
     </row>
     <row r="24" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="40"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
@@ -14190,153 +14188,153 @@
       <c r="BA24" s="28"/>
       <c r="BB24" s="28"/>
       <c r="BC24" s="28"/>
-      <c r="BD24" s="35"/>
-      <c r="BE24" s="36"/>
-      <c r="BF24" s="36"/>
-      <c r="BG24" s="36"/>
-      <c r="BH24" s="36"/>
-      <c r="BI24" s="36"/>
-      <c r="BJ24" s="36"/>
-      <c r="BK24" s="36"/>
-      <c r="BL24" s="36"/>
-      <c r="BM24" s="36"/>
-      <c r="BN24" s="36"/>
-      <c r="BO24" s="36"/>
-      <c r="BP24" s="36"/>
-      <c r="BQ24" s="36"/>
-      <c r="BR24" s="36"/>
-      <c r="BS24" s="36"/>
-      <c r="BT24" s="36"/>
-      <c r="BU24" s="36"/>
-      <c r="BV24" s="36"/>
-      <c r="BW24" s="36"/>
-      <c r="BX24" s="36"/>
-      <c r="BY24" s="36"/>
-      <c r="BZ24" s="36"/>
-      <c r="CA24" s="36"/>
-      <c r="CB24" s="36"/>
-      <c r="CC24" s="36"/>
-      <c r="CD24" s="36"/>
-      <c r="CE24" s="37"/>
+      <c r="BD24" s="32"/>
+      <c r="BE24" s="33"/>
+      <c r="BF24" s="33"/>
+      <c r="BG24" s="33"/>
+      <c r="BH24" s="33"/>
+      <c r="BI24" s="33"/>
+      <c r="BJ24" s="33"/>
+      <c r="BK24" s="33"/>
+      <c r="BL24" s="33"/>
+      <c r="BM24" s="33"/>
+      <c r="BN24" s="33"/>
+      <c r="BO24" s="33"/>
+      <c r="BP24" s="33"/>
+      <c r="BQ24" s="33"/>
+      <c r="BR24" s="33"/>
+      <c r="BS24" s="33"/>
+      <c r="BT24" s="33"/>
+      <c r="BU24" s="33"/>
+      <c r="BV24" s="33"/>
+      <c r="BW24" s="33"/>
+      <c r="BX24" s="33"/>
+      <c r="BY24" s="33"/>
+      <c r="BZ24" s="33"/>
+      <c r="CA24" s="33"/>
+      <c r="CB24" s="33"/>
+      <c r="CC24" s="33"/>
+      <c r="CD24" s="33"/>
+      <c r="CE24" s="34"/>
     </row>
     <row r="27" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="32" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="32" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="29" t="s">
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29" t="s">
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="30"/>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="29"/>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-      <c r="AK27" s="29" t="s">
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="30"/>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+      <c r="AK27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AL27" s="29"/>
-      <c r="AM27" s="29"/>
-      <c r="AN27" s="29"/>
-      <c r="AO27" s="29"/>
-      <c r="AP27" s="29"/>
-      <c r="AQ27" s="29"/>
-      <c r="AR27" s="29"/>
-      <c r="AS27" s="29"/>
-      <c r="AT27" s="29"/>
-      <c r="AU27" s="29"/>
-      <c r="AV27" s="29"/>
-      <c r="AW27" s="29"/>
-      <c r="AX27" s="29"/>
-      <c r="AY27" s="29"/>
-      <c r="AZ27" s="29"/>
-      <c r="BA27" s="29"/>
-      <c r="BB27" s="29"/>
-      <c r="BC27" s="29"/>
-      <c r="BD27" s="32" t="s">
+      <c r="AL27" s="30"/>
+      <c r="AM27" s="30"/>
+      <c r="AN27" s="30"/>
+      <c r="AO27" s="30"/>
+      <c r="AP27" s="30"/>
+      <c r="AQ27" s="30"/>
+      <c r="AR27" s="30"/>
+      <c r="AS27" s="30"/>
+      <c r="AT27" s="30"/>
+      <c r="AU27" s="30"/>
+      <c r="AV27" s="30"/>
+      <c r="AW27" s="30"/>
+      <c r="AX27" s="30"/>
+      <c r="AY27" s="30"/>
+      <c r="AZ27" s="30"/>
+      <c r="BA27" s="30"/>
+      <c r="BB27" s="30"/>
+      <c r="BC27" s="30"/>
+      <c r="BD27" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="BE27" s="33"/>
-      <c r="BF27" s="33"/>
-      <c r="BG27" s="33"/>
-      <c r="BH27" s="33"/>
-      <c r="BI27" s="33"/>
-      <c r="BJ27" s="33"/>
-      <c r="BK27" s="33"/>
-      <c r="BL27" s="33"/>
-      <c r="BM27" s="33"/>
-      <c r="BN27" s="33"/>
-      <c r="BO27" s="33"/>
-      <c r="BP27" s="33"/>
-      <c r="BQ27" s="33"/>
-      <c r="BR27" s="33"/>
-      <c r="BS27" s="33"/>
-      <c r="BT27" s="33"/>
-      <c r="BU27" s="33"/>
-      <c r="BV27" s="33"/>
-      <c r="BW27" s="33"/>
-      <c r="BX27" s="33"/>
-      <c r="BY27" s="33"/>
-      <c r="BZ27" s="33"/>
-      <c r="CA27" s="33"/>
-      <c r="CB27" s="33"/>
-      <c r="CC27" s="33"/>
-      <c r="CD27" s="33"/>
-      <c r="CE27" s="34"/>
+      <c r="BE27" s="39"/>
+      <c r="BF27" s="39"/>
+      <c r="BG27" s="39"/>
+      <c r="BH27" s="39"/>
+      <c r="BI27" s="39"/>
+      <c r="BJ27" s="39"/>
+      <c r="BK27" s="39"/>
+      <c r="BL27" s="39"/>
+      <c r="BM27" s="39"/>
+      <c r="BN27" s="39"/>
+      <c r="BO27" s="39"/>
+      <c r="BP27" s="39"/>
+      <c r="BQ27" s="39"/>
+      <c r="BR27" s="39"/>
+      <c r="BS27" s="39"/>
+      <c r="BT27" s="39"/>
+      <c r="BU27" s="39"/>
+      <c r="BV27" s="39"/>
+      <c r="BW27" s="39"/>
+      <c r="BX27" s="39"/>
+      <c r="BY27" s="39"/>
+      <c r="BZ27" s="39"/>
+      <c r="CA27" s="39"/>
+      <c r="CB27" s="39"/>
+      <c r="CC27" s="39"/>
+      <c r="CD27" s="39"/>
+      <c r="CE27" s="40"/>
     </row>
     <row r="28" spans="1:83" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30">
+      <c r="A28" s="31">
         <v>1</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="31"/>
+      <c r="C28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="40"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
       <c r="M28" s="28" t="s">
         <v>145</v>
       </c>
@@ -14386,57 +14384,57 @@
       <c r="BA28" s="28"/>
       <c r="BB28" s="28"/>
       <c r="BC28" s="28"/>
-      <c r="BD28" s="35" t="s">
+      <c r="BD28" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="BE28" s="36"/>
-      <c r="BF28" s="36"/>
-      <c r="BG28" s="36"/>
-      <c r="BH28" s="36"/>
-      <c r="BI28" s="36"/>
-      <c r="BJ28" s="36"/>
-      <c r="BK28" s="36"/>
-      <c r="BL28" s="36"/>
-      <c r="BM28" s="36"/>
-      <c r="BN28" s="36"/>
-      <c r="BO28" s="36"/>
-      <c r="BP28" s="36"/>
-      <c r="BQ28" s="36"/>
-      <c r="BR28" s="36"/>
-      <c r="BS28" s="36"/>
-      <c r="BT28" s="36"/>
-      <c r="BU28" s="36"/>
-      <c r="BV28" s="36"/>
-      <c r="BW28" s="36"/>
-      <c r="BX28" s="36"/>
-      <c r="BY28" s="36"/>
-      <c r="BZ28" s="36"/>
-      <c r="CA28" s="36"/>
-      <c r="CB28" s="36"/>
-      <c r="CC28" s="36"/>
-      <c r="CD28" s="36"/>
-      <c r="CE28" s="37"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="33"/>
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BI28" s="33"/>
+      <c r="BJ28" s="33"/>
+      <c r="BK28" s="33"/>
+      <c r="BL28" s="33"/>
+      <c r="BM28" s="33"/>
+      <c r="BN28" s="33"/>
+      <c r="BO28" s="33"/>
+      <c r="BP28" s="33"/>
+      <c r="BQ28" s="33"/>
+      <c r="BR28" s="33"/>
+      <c r="BS28" s="33"/>
+      <c r="BT28" s="33"/>
+      <c r="BU28" s="33"/>
+      <c r="BV28" s="33"/>
+      <c r="BW28" s="33"/>
+      <c r="BX28" s="33"/>
+      <c r="BY28" s="33"/>
+      <c r="BZ28" s="33"/>
+      <c r="CA28" s="33"/>
+      <c r="CB28" s="33"/>
+      <c r="CC28" s="33"/>
+      <c r="CD28" s="33"/>
+      <c r="CE28" s="34"/>
     </row>
     <row r="29" spans="1:83" ht="62.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="30">
+      <c r="A29" s="31">
         <f xml:space="preserve"> $A28 + 1</f>
         <v>2</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="28" t="s">
         <v>148</v>
       </c>
@@ -14486,57 +14484,57 @@
       <c r="BA29" s="28"/>
       <c r="BB29" s="28"/>
       <c r="BC29" s="28"/>
-      <c r="BD29" s="35" t="s">
+      <c r="BD29" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="BE29" s="36"/>
-      <c r="BF29" s="36"/>
-      <c r="BG29" s="36"/>
-      <c r="BH29" s="36"/>
-      <c r="BI29" s="36"/>
-      <c r="BJ29" s="36"/>
-      <c r="BK29" s="36"/>
-      <c r="BL29" s="36"/>
-      <c r="BM29" s="36"/>
-      <c r="BN29" s="36"/>
-      <c r="BO29" s="36"/>
-      <c r="BP29" s="36"/>
-      <c r="BQ29" s="36"/>
-      <c r="BR29" s="36"/>
-      <c r="BS29" s="36"/>
-      <c r="BT29" s="36"/>
-      <c r="BU29" s="36"/>
-      <c r="BV29" s="36"/>
-      <c r="BW29" s="36"/>
-      <c r="BX29" s="36"/>
-      <c r="BY29" s="36"/>
-      <c r="BZ29" s="36"/>
-      <c r="CA29" s="36"/>
-      <c r="CB29" s="36"/>
-      <c r="CC29" s="36"/>
-      <c r="CD29" s="36"/>
-      <c r="CE29" s="37"/>
+      <c r="BE29" s="33"/>
+      <c r="BF29" s="33"/>
+      <c r="BG29" s="33"/>
+      <c r="BH29" s="33"/>
+      <c r="BI29" s="33"/>
+      <c r="BJ29" s="33"/>
+      <c r="BK29" s="33"/>
+      <c r="BL29" s="33"/>
+      <c r="BM29" s="33"/>
+      <c r="BN29" s="33"/>
+      <c r="BO29" s="33"/>
+      <c r="BP29" s="33"/>
+      <c r="BQ29" s="33"/>
+      <c r="BR29" s="33"/>
+      <c r="BS29" s="33"/>
+      <c r="BT29" s="33"/>
+      <c r="BU29" s="33"/>
+      <c r="BV29" s="33"/>
+      <c r="BW29" s="33"/>
+      <c r="BX29" s="33"/>
+      <c r="BY29" s="33"/>
+      <c r="BZ29" s="33"/>
+      <c r="CA29" s="33"/>
+      <c r="CB29" s="33"/>
+      <c r="CC29" s="33"/>
+      <c r="CD29" s="33"/>
+      <c r="CE29" s="34"/>
     </row>
     <row r="30" spans="1:83" ht="64.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30">
+      <c r="A30" s="31">
         <f t="shared" ref="A30:A32" si="3" xml:space="preserve"> $A29 + 1</f>
         <v>3</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="35" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
       <c r="M30" s="28" t="s">
         <v>161</v>
       </c>
@@ -14586,57 +14584,57 @@
       <c r="BA30" s="28"/>
       <c r="BB30" s="28"/>
       <c r="BC30" s="28"/>
-      <c r="BD30" s="35" t="s">
+      <c r="BD30" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="BE30" s="36"/>
-      <c r="BF30" s="36"/>
-      <c r="BG30" s="36"/>
-      <c r="BH30" s="36"/>
-      <c r="BI30" s="36"/>
-      <c r="BJ30" s="36"/>
-      <c r="BK30" s="36"/>
-      <c r="BL30" s="36"/>
-      <c r="BM30" s="36"/>
-      <c r="BN30" s="36"/>
-      <c r="BO30" s="36"/>
-      <c r="BP30" s="36"/>
-      <c r="BQ30" s="36"/>
-      <c r="BR30" s="36"/>
-      <c r="BS30" s="36"/>
-      <c r="BT30" s="36"/>
-      <c r="BU30" s="36"/>
-      <c r="BV30" s="36"/>
-      <c r="BW30" s="36"/>
-      <c r="BX30" s="36"/>
-      <c r="BY30" s="36"/>
-      <c r="BZ30" s="36"/>
-      <c r="CA30" s="36"/>
-      <c r="CB30" s="36"/>
-      <c r="CC30" s="36"/>
-      <c r="CD30" s="36"/>
-      <c r="CE30" s="37"/>
+      <c r="BE30" s="33"/>
+      <c r="BF30" s="33"/>
+      <c r="BG30" s="33"/>
+      <c r="BH30" s="33"/>
+      <c r="BI30" s="33"/>
+      <c r="BJ30" s="33"/>
+      <c r="BK30" s="33"/>
+      <c r="BL30" s="33"/>
+      <c r="BM30" s="33"/>
+      <c r="BN30" s="33"/>
+      <c r="BO30" s="33"/>
+      <c r="BP30" s="33"/>
+      <c r="BQ30" s="33"/>
+      <c r="BR30" s="33"/>
+      <c r="BS30" s="33"/>
+      <c r="BT30" s="33"/>
+      <c r="BU30" s="33"/>
+      <c r="BV30" s="33"/>
+      <c r="BW30" s="33"/>
+      <c r="BX30" s="33"/>
+      <c r="BY30" s="33"/>
+      <c r="BZ30" s="33"/>
+      <c r="CA30" s="33"/>
+      <c r="CB30" s="33"/>
+      <c r="CC30" s="33"/>
+      <c r="CD30" s="33"/>
+      <c r="CE30" s="34"/>
     </row>
     <row r="31" spans="1:83" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+      <c r="A31" s="31">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="35" t="s">
+      <c r="B31" s="31"/>
+      <c r="C31" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
       <c r="M31" s="28" t="s">
         <v>152</v>
       </c>
@@ -14686,53 +14684,53 @@
       <c r="BA31" s="28"/>
       <c r="BB31" s="28"/>
       <c r="BC31" s="28"/>
-      <c r="BD31" s="35" t="s">
+      <c r="BD31" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="BE31" s="36"/>
-      <c r="BF31" s="36"/>
-      <c r="BG31" s="36"/>
-      <c r="BH31" s="36"/>
-      <c r="BI31" s="36"/>
-      <c r="BJ31" s="36"/>
-      <c r="BK31" s="36"/>
-      <c r="BL31" s="36"/>
-      <c r="BM31" s="36"/>
-      <c r="BN31" s="36"/>
-      <c r="BO31" s="36"/>
-      <c r="BP31" s="36"/>
-      <c r="BQ31" s="36"/>
-      <c r="BR31" s="36"/>
-      <c r="BS31" s="36"/>
-      <c r="BT31" s="36"/>
-      <c r="BU31" s="36"/>
-      <c r="BV31" s="36"/>
-      <c r="BW31" s="36"/>
-      <c r="BX31" s="36"/>
-      <c r="BY31" s="36"/>
-      <c r="BZ31" s="36"/>
-      <c r="CA31" s="36"/>
-      <c r="CB31" s="36"/>
-      <c r="CC31" s="36"/>
-      <c r="CD31" s="36"/>
-      <c r="CE31" s="37"/>
+      <c r="BE31" s="33"/>
+      <c r="BF31" s="33"/>
+      <c r="BG31" s="33"/>
+      <c r="BH31" s="33"/>
+      <c r="BI31" s="33"/>
+      <c r="BJ31" s="33"/>
+      <c r="BK31" s="33"/>
+      <c r="BL31" s="33"/>
+      <c r="BM31" s="33"/>
+      <c r="BN31" s="33"/>
+      <c r="BO31" s="33"/>
+      <c r="BP31" s="33"/>
+      <c r="BQ31" s="33"/>
+      <c r="BR31" s="33"/>
+      <c r="BS31" s="33"/>
+      <c r="BT31" s="33"/>
+      <c r="BU31" s="33"/>
+      <c r="BV31" s="33"/>
+      <c r="BW31" s="33"/>
+      <c r="BX31" s="33"/>
+      <c r="BY31" s="33"/>
+      <c r="BZ31" s="33"/>
+      <c r="CA31" s="33"/>
+      <c r="CB31" s="33"/>
+      <c r="CC31" s="33"/>
+      <c r="CD31" s="33"/>
+      <c r="CE31" s="34"/>
     </row>
     <row r="32" spans="1:83" x14ac:dyDescent="0.2">
-      <c r="A32" s="30">
+      <c r="A32" s="31">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
@@ -14776,37 +14774,193 @@
       <c r="BA32" s="28"/>
       <c r="BB32" s="28"/>
       <c r="BC32" s="28"/>
-      <c r="BD32" s="35"/>
-      <c r="BE32" s="36"/>
-      <c r="BF32" s="36"/>
-      <c r="BG32" s="36"/>
-      <c r="BH32" s="36"/>
-      <c r="BI32" s="36"/>
-      <c r="BJ32" s="36"/>
-      <c r="BK32" s="36"/>
-      <c r="BL32" s="36"/>
-      <c r="BM32" s="36"/>
-      <c r="BN32" s="36"/>
-      <c r="BO32" s="36"/>
-      <c r="BP32" s="36"/>
-      <c r="BQ32" s="36"/>
-      <c r="BR32" s="36"/>
-      <c r="BS32" s="36"/>
-      <c r="BT32" s="36"/>
-      <c r="BU32" s="36"/>
-      <c r="BV32" s="36"/>
-      <c r="BW32" s="36"/>
-      <c r="BX32" s="36"/>
-      <c r="BY32" s="36"/>
-      <c r="BZ32" s="36"/>
-      <c r="CA32" s="36"/>
-      <c r="CB32" s="36"/>
-      <c r="CC32" s="36"/>
-      <c r="CD32" s="36"/>
-      <c r="CE32" s="37"/>
+      <c r="BD32" s="32"/>
+      <c r="BE32" s="33"/>
+      <c r="BF32" s="33"/>
+      <c r="BG32" s="33"/>
+      <c r="BH32" s="33"/>
+      <c r="BI32" s="33"/>
+      <c r="BJ32" s="33"/>
+      <c r="BK32" s="33"/>
+      <c r="BL32" s="33"/>
+      <c r="BM32" s="33"/>
+      <c r="BN32" s="33"/>
+      <c r="BO32" s="33"/>
+      <c r="BP32" s="33"/>
+      <c r="BQ32" s="33"/>
+      <c r="BR32" s="33"/>
+      <c r="BS32" s="33"/>
+      <c r="BT32" s="33"/>
+      <c r="BU32" s="33"/>
+      <c r="BV32" s="33"/>
+      <c r="BW32" s="33"/>
+      <c r="BX32" s="33"/>
+      <c r="BY32" s="33"/>
+      <c r="BZ32" s="33"/>
+      <c r="CA32" s="33"/>
+      <c r="CB32" s="33"/>
+      <c r="CC32" s="33"/>
+      <c r="CD32" s="33"/>
+      <c r="CE32" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="180">
+    <mergeCell ref="A2:BC2"/>
+    <mergeCell ref="M11:U11"/>
+    <mergeCell ref="V11:AD11"/>
+    <mergeCell ref="AE11:AM11"/>
+    <mergeCell ref="AE8:BC8"/>
+    <mergeCell ref="A3:BC3"/>
+    <mergeCell ref="AE6:BC6"/>
+    <mergeCell ref="AN11:BC11"/>
+    <mergeCell ref="AE5:BC5"/>
+    <mergeCell ref="M8:AD8"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="AE7:BC7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:L8"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="M12:U12"/>
+    <mergeCell ref="V12:AD12"/>
+    <mergeCell ref="AE12:AM12"/>
+    <mergeCell ref="AN12:BC12"/>
+    <mergeCell ref="M13:U13"/>
+    <mergeCell ref="V13:AD13"/>
+    <mergeCell ref="AE13:AM13"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:L12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:L13"/>
+    <mergeCell ref="AN13:BC13"/>
+    <mergeCell ref="AK27:BC27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="AN24:BC24"/>
+    <mergeCell ref="V14:AD14"/>
+    <mergeCell ref="AE14:AM14"/>
+    <mergeCell ref="AN14:BC14"/>
+    <mergeCell ref="M15:U15"/>
+    <mergeCell ref="V15:AD15"/>
+    <mergeCell ref="AE15:AM15"/>
+    <mergeCell ref="AN15:BC15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:L14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="M18:U18"/>
+    <mergeCell ref="V18:AD18"/>
+    <mergeCell ref="AE18:AM18"/>
+    <mergeCell ref="AN18:BC18"/>
+    <mergeCell ref="M21:U21"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="M29:X29"/>
+    <mergeCell ref="Y29:AJ29"/>
+    <mergeCell ref="AK29:BC29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="M28:X28"/>
+    <mergeCell ref="Y28:AJ28"/>
+    <mergeCell ref="AK28:BC28"/>
+    <mergeCell ref="M5:AD5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="M6:AD6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="M7:AD7"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="M27:X27"/>
+    <mergeCell ref="Y27:AJ27"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="V24:AD24"/>
+    <mergeCell ref="AE24:AM24"/>
+    <mergeCell ref="M24:U24"/>
+    <mergeCell ref="M14:U14"/>
+    <mergeCell ref="AK31:BC31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="M30:X30"/>
+    <mergeCell ref="Y30:AJ30"/>
+    <mergeCell ref="AK30:BC30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="M32:X32"/>
+    <mergeCell ref="Y32:AJ32"/>
+    <mergeCell ref="AK32:BC32"/>
+    <mergeCell ref="BD5:CE5"/>
+    <mergeCell ref="BD6:CE6"/>
+    <mergeCell ref="BD7:CE7"/>
+    <mergeCell ref="BD8:CE8"/>
+    <mergeCell ref="BD11:CE11"/>
+    <mergeCell ref="BD12:CE12"/>
+    <mergeCell ref="BD13:CE13"/>
+    <mergeCell ref="BD14:CE14"/>
+    <mergeCell ref="BD15:CE15"/>
+    <mergeCell ref="BD24:CE24"/>
+    <mergeCell ref="BD27:CE27"/>
+    <mergeCell ref="BD28:CE28"/>
+    <mergeCell ref="BD29:CE29"/>
+    <mergeCell ref="BD30:CE30"/>
+    <mergeCell ref="BD31:CE31"/>
+    <mergeCell ref="BD32:CE32"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="M31:X31"/>
+    <mergeCell ref="Y31:AJ31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:L24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:L27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:L21"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:L23"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:L17"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="V22:AD22"/>
+    <mergeCell ref="AE22:AM22"/>
+    <mergeCell ref="AN22:BC22"/>
+    <mergeCell ref="BD18:CE18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:L19"/>
+    <mergeCell ref="M19:U19"/>
+    <mergeCell ref="V19:AD19"/>
+    <mergeCell ref="AE19:AM19"/>
+    <mergeCell ref="AN19:BC19"/>
+    <mergeCell ref="BD19:CE19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:L20"/>
+    <mergeCell ref="M20:U20"/>
+    <mergeCell ref="V20:AD20"/>
+    <mergeCell ref="AE20:AM20"/>
+    <mergeCell ref="AN20:BC20"/>
+    <mergeCell ref="BD20:CE20"/>
     <mergeCell ref="M17:U17"/>
     <mergeCell ref="V17:AD17"/>
     <mergeCell ref="AE17:AM17"/>
@@ -14831,162 +14985,6 @@
     <mergeCell ref="V21:AD21"/>
     <mergeCell ref="AE21:AM21"/>
     <mergeCell ref="AN21:BC21"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="V22:AD22"/>
-    <mergeCell ref="AE22:AM22"/>
-    <mergeCell ref="AN22:BC22"/>
-    <mergeCell ref="BD18:CE18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:L19"/>
-    <mergeCell ref="M19:U19"/>
-    <mergeCell ref="V19:AD19"/>
-    <mergeCell ref="AE19:AM19"/>
-    <mergeCell ref="AN19:BC19"/>
-    <mergeCell ref="BD19:CE19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="M20:U20"/>
-    <mergeCell ref="V20:AD20"/>
-    <mergeCell ref="AE20:AM20"/>
-    <mergeCell ref="AN20:BC20"/>
-    <mergeCell ref="BD20:CE20"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:L27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:L21"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:L23"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:L17"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="M32:X32"/>
-    <mergeCell ref="Y32:AJ32"/>
-    <mergeCell ref="AK32:BC32"/>
-    <mergeCell ref="BD5:CE5"/>
-    <mergeCell ref="BD6:CE6"/>
-    <mergeCell ref="BD7:CE7"/>
-    <mergeCell ref="BD8:CE8"/>
-    <mergeCell ref="BD11:CE11"/>
-    <mergeCell ref="BD12:CE12"/>
-    <mergeCell ref="BD13:CE13"/>
-    <mergeCell ref="BD14:CE14"/>
-    <mergeCell ref="BD15:CE15"/>
-    <mergeCell ref="BD24:CE24"/>
-    <mergeCell ref="BD27:CE27"/>
-    <mergeCell ref="BD28:CE28"/>
-    <mergeCell ref="BD29:CE29"/>
-    <mergeCell ref="BD30:CE30"/>
-    <mergeCell ref="BD31:CE31"/>
-    <mergeCell ref="BD32:CE32"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="M31:X31"/>
-    <mergeCell ref="Y31:AJ31"/>
-    <mergeCell ref="AK31:BC31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="M30:X30"/>
-    <mergeCell ref="Y30:AJ30"/>
-    <mergeCell ref="AK30:BC30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="M29:X29"/>
-    <mergeCell ref="Y29:AJ29"/>
-    <mergeCell ref="AK29:BC29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="M28:X28"/>
-    <mergeCell ref="Y28:AJ28"/>
-    <mergeCell ref="AK28:BC28"/>
-    <mergeCell ref="M5:AD5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="M6:AD6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="M7:AD7"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="M27:X27"/>
-    <mergeCell ref="Y27:AJ27"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="V24:AD24"/>
-    <mergeCell ref="AE24:AM24"/>
-    <mergeCell ref="M24:U24"/>
-    <mergeCell ref="M14:U14"/>
-    <mergeCell ref="AK27:BC27"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="AN24:BC24"/>
-    <mergeCell ref="V14:AD14"/>
-    <mergeCell ref="AE14:AM14"/>
-    <mergeCell ref="AN14:BC14"/>
-    <mergeCell ref="M15:U15"/>
-    <mergeCell ref="V15:AD15"/>
-    <mergeCell ref="AE15:AM15"/>
-    <mergeCell ref="AN15:BC15"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:L14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="M18:U18"/>
-    <mergeCell ref="V18:AD18"/>
-    <mergeCell ref="AE18:AM18"/>
-    <mergeCell ref="AN18:BC18"/>
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="M12:U12"/>
-    <mergeCell ref="V12:AD12"/>
-    <mergeCell ref="AE12:AM12"/>
-    <mergeCell ref="AN12:BC12"/>
-    <mergeCell ref="M13:U13"/>
-    <mergeCell ref="V13:AD13"/>
-    <mergeCell ref="AE13:AM13"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:L12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:L13"/>
-    <mergeCell ref="AN13:BC13"/>
-    <mergeCell ref="A2:BC2"/>
-    <mergeCell ref="M11:U11"/>
-    <mergeCell ref="V11:AD11"/>
-    <mergeCell ref="AE11:AM11"/>
-    <mergeCell ref="AE8:BC8"/>
-    <mergeCell ref="A3:BC3"/>
-    <mergeCell ref="AE6:BC6"/>
-    <mergeCell ref="AN11:BC11"/>
-    <mergeCell ref="AE5:BC5"/>
-    <mergeCell ref="M8:AD8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="AE7:BC7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:L8"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:L11"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <hyperlinks>
@@ -15006,47 +15004,47 @@
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="29"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
     </row>
     <row r="3" spans="1:35" ht="83.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41">
@@ -15065,31 +15063,31 @@
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
     </row>
     <row r="4" spans="1:35" ht="46.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41">
@@ -15109,31 +15107,31 @@
       <c r="J4" s="42"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="43"/>
+      <c r="AF4" s="43"/>
+      <c r="AG4" s="43"/>
+      <c r="AH4" s="43"/>
+      <c r="AI4" s="43"/>
     </row>
     <row r="5" spans="1:35" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41">
@@ -15153,31 +15151,31 @@
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="44"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="44"/>
-      <c r="AH5" s="44"/>
-      <c r="AI5" s="44"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
     </row>
     <row r="6" spans="1:35" ht="47.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41">
@@ -15197,31 +15195,31 @@
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42"/>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="44"/>
-      <c r="U6" s="44"/>
-      <c r="V6" s="44"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="44"/>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="44"/>
-      <c r="AH6" s="44"/>
-      <c r="AI6" s="44"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="43"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="41">
@@ -15239,32 +15237,38 @@
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
-      <c r="AE7" s="44"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="44"/>
-      <c r="AH7" s="44"/>
-      <c r="AI7" s="44"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="M2:AI2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:AI3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AI4"/>
@@ -15277,12 +15281,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="M6:AI6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:L2"/>
-    <mergeCell ref="M2:AI2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
